--- a/public/data/yield_loss/yield_table_tanzania.xlsx
+++ b/public/data/yield_loss/yield_table_tanzania.xlsx
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6142.38</v>
+        <v>6054.34</v>
       </c>
       <c r="G29" t="n">
         <v>212.04</v>
       </c>
       <c r="H29" t="n">
-        <v>1546.37</v>
+        <v>1515.98</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3921,10 +3921,10 @@
         <v>200.56</v>
       </c>
       <c r="K29" t="n">
-        <v>74.8</v>
+        <v>74.51</v>
       </c>
       <c r="L29" t="n">
-        <v>3663.54</v>
+        <v>3617.56</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3986,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1794.64</v>
+        <v>1774.28</v>
       </c>
       <c r="G30" t="n">
         <v>58.24</v>
       </c>
       <c r="H30" t="n">
-        <v>51.26</v>
+        <v>51.16</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>5.27</v>
       </c>
       <c r="L30" t="n">
-        <v>303.53</v>
+        <v>302.48</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -4066,13 +4066,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>5833.41</v>
+        <v>5790.66</v>
       </c>
       <c r="G31" t="n">
         <v>64.16</v>
       </c>
       <c r="H31" t="n">
-        <v>754.65</v>
+        <v>744.06</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -4081,10 +4081,10 @@
         <v>61.08</v>
       </c>
       <c r="K31" t="n">
-        <v>37.52</v>
+        <v>37.48</v>
       </c>
       <c r="L31" t="n">
-        <v>1706.43</v>
+        <v>1688.43</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -4226,13 +4226,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>3104.7</v>
+        <v>3093.03</v>
       </c>
       <c r="G33" t="n">
         <v>26.56</v>
       </c>
       <c r="H33" t="n">
-        <v>380.08</v>
+        <v>377.82</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -4241,10 +4241,10 @@
         <v>30.39</v>
       </c>
       <c r="K33" t="n">
-        <v>19.1</v>
+        <v>19.08</v>
       </c>
       <c r="L33" t="n">
-        <v>1725.51</v>
+        <v>1719.78</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>569.38</v>
+        <v>568.54</v>
       </c>
       <c r="G37" t="n">
         <v>0.25</v>
@@ -4561,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>25.01</v>
+        <v>24.98</v>
       </c>
       <c r="L37" t="n">
-        <v>2107.9</v>
+        <v>2107.87</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2746.19</v>
+        <v>2752.35</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1533.88</v>
+        <v>1534.4</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -4739,16 +4739,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1307.72</v>
+        <v>1308.46</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>22.4</v>
+        <v>22.41</v>
       </c>
       <c r="T39" t="n">
-        <v>7.14</v>
+        <v>7.18</v>
       </c>
       <c r="U39" t="n">
         <v>0.11</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>57.31</v>
+        <v>57.33</v>
       </c>
     </row>
     <row r="40">
@@ -4786,13 +4786,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>4018.97</v>
+        <v>3980.96</v>
       </c>
       <c r="G40" t="n">
         <v>129.13</v>
       </c>
       <c r="H40" t="n">
-        <v>192.24</v>
+        <v>191.84</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>16.83</v>
       </c>
       <c r="K40" t="n">
-        <v>11.52</v>
+        <v>11.55</v>
       </c>
       <c r="L40" t="n">
-        <v>1362.85</v>
+        <v>1358.88</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>14617.06</v>
+        <v>14218.37</v>
       </c>
       <c r="G41" t="n">
         <v>191.62</v>
@@ -4881,10 +4881,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>208.24</v>
+        <v>206.89</v>
       </c>
       <c r="L41" t="n">
-        <v>1779.47</v>
+        <v>1739.6</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2304.58</v>
+        <v>1997.49</v>
       </c>
       <c r="G42" t="n">
         <v>100.34</v>
@@ -4961,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>32.27</v>
+        <v>31.16</v>
       </c>
       <c r="L42" t="n">
-        <v>215.81</v>
+        <v>189.51</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>4583.26</v>
+        <v>4519.8</v>
       </c>
       <c r="G45" t="n">
         <v>61.11</v>
@@ -5201,10 +5201,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>48.52</v>
+        <v>48.39</v>
       </c>
       <c r="L45" t="n">
-        <v>656.58</v>
+        <v>645.73</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>10934.44</v>
+        <v>10619.26</v>
       </c>
       <c r="G46" t="n">
         <v>113.2</v>
@@ -5281,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>141.77</v>
+        <v>140.64</v>
       </c>
       <c r="L46" t="n">
-        <v>1229</v>
+        <v>1202.37</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>17391.43</v>
+        <v>17221.67</v>
       </c>
       <c r="G47" t="n">
         <v>193.87</v>
@@ -5361,10 +5361,10 @@
         <v>0.06</v>
       </c>
       <c r="K47" t="n">
-        <v>76.18</v>
+        <v>76.06</v>
       </c>
       <c r="L47" t="n">
-        <v>900.13</v>
+        <v>890.75</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>6420.99</v>
+        <v>6419.13</v>
       </c>
       <c r="G48" t="n">
         <v>4.1</v>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1316.39</v>
+        <v>1315.53</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -5453,7 +5453,7 @@
         <v>949.26</v>
       </c>
       <c r="O48" t="n">
-        <v>154.46</v>
+        <v>154.19</v>
       </c>
       <c r="P48" t="n">
         <v>0.08</v>
@@ -5471,7 +5471,7 @@
         <v>598.3</v>
       </c>
       <c r="U48" t="n">
-        <v>45.4</v>
+        <v>45.39</v>
       </c>
       <c r="V48" t="n">
         <v>0.01</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>4097.42</v>
+        <v>4058.04</v>
       </c>
       <c r="G56" t="n">
         <v>54.01</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>915.51</v>
+        <v>908.77</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -6093,7 +6093,7 @@
         <v>6590.09</v>
       </c>
       <c r="O56" t="n">
-        <v>455.94</v>
+        <v>455.02</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>15202.48</v>
+        <v>13815.2</v>
       </c>
       <c r="G58" t="n">
         <v>970.98</v>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>2395.69</v>
+        <v>2082.79</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>5745.44</v>
       </c>
       <c r="O58" t="n">
-        <v>588.06</v>
+        <v>531.46</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -6271,7 +6271,7 @@
         <v>321.01</v>
       </c>
       <c r="U58" t="n">
-        <v>92.17</v>
+        <v>85.03</v>
       </c>
       <c r="V58" t="n">
         <v>0.78</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1591.36</v>
+        <v>1591.17</v>
       </c>
       <c r="G59" t="n">
         <v>1.57</v>
@@ -6324,7 +6324,7 @@
         <v>0.02</v>
       </c>
       <c r="L59" t="n">
-        <v>874.54</v>
+        <v>874.4</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -6333,7 +6333,7 @@
         <v>771.57</v>
       </c>
       <c r="O59" t="n">
-        <v>60.88</v>
+        <v>60.87</v>
       </c>
       <c r="P59" t="n">
         <v>1.43</v>
@@ -6380,16 +6380,16 @@
         <v>147</v>
       </c>
       <c r="D60" t="n">
-        <v>144.49</v>
+        <v>145.14</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>52164.06</v>
+        <v>46938.12</v>
       </c>
       <c r="G60" t="n">
-        <v>1308.25</v>
+        <v>1329.19</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -6398,22 +6398,22 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>8.38</v>
+        <v>8.6</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>9116.4</v>
+        <v>8102.2</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>22546.8</v>
+        <v>22622.86</v>
       </c>
       <c r="O60" t="n">
-        <v>1619.43</v>
+        <v>1463.24</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -6425,25 +6425,25 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>511.82</v>
+        <v>512.51</v>
       </c>
       <c r="T60" t="n">
-        <v>1175.17</v>
+        <v>1189.31</v>
       </c>
       <c r="U60" t="n">
-        <v>54.97</v>
+        <v>50.52</v>
       </c>
       <c r="V60" t="n">
         <v>48.52</v>
       </c>
       <c r="W60" t="n">
-        <v>20955.52</v>
+        <v>21108.64</v>
       </c>
       <c r="X60" t="n">
         <v>7.31</v>
       </c>
       <c r="Y60" t="n">
-        <v>174.59</v>
+        <v>176.94</v>
       </c>
       <c r="Z60" t="n">
         <v>0.55</v>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>6094.85</v>
+        <v>6061.83</v>
       </c>
       <c r="G61" t="n">
         <v>18.24</v>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>691.48</v>
+        <v>686.46</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -6493,7 +6493,7 @@
         <v>2197.63</v>
       </c>
       <c r="O61" t="n">
-        <v>120.3</v>
+        <v>119.61</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>11368.83</v>
+        <v>10095.14</v>
       </c>
       <c r="G62" t="n">
         <v>284.18</v>
@@ -6564,7 +6564,7 @@
         <v>0.02</v>
       </c>
       <c r="L62" t="n">
-        <v>4720.01</v>
+        <v>4323.29</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>6096.08</v>
       </c>
       <c r="O62" t="n">
-        <v>176.33</v>
+        <v>148.83</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -6591,7 +6591,7 @@
         <v>935.41</v>
       </c>
       <c r="U62" t="n">
-        <v>8.75</v>
+        <v>8.89</v>
       </c>
       <c r="V62" t="n">
         <v>0.12</v>
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>6047.37</v>
+        <v>6043.75</v>
       </c>
       <c r="G66" t="n">
         <v>11.23</v>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>811.17</v>
+        <v>810.67</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>3359.49</v>
       </c>
       <c r="O66" t="n">
-        <v>1674.3</v>
+        <v>1673.36</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>535.62</v>
+        <v>531.2</v>
       </c>
       <c r="G99" t="n">
         <v>1.9</v>
@@ -9524,7 +9524,7 @@
         <v>0.09</v>
       </c>
       <c r="L99" t="n">
-        <v>215.03</v>
+        <v>213.69</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>937.12</v>
+        <v>936.84</v>
       </c>
       <c r="G100" t="n">
         <v>0.95</v>
@@ -9604,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>375.81</v>
+        <v>375.2</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -9613,7 +9613,7 @@
         <v>1013.19</v>
       </c>
       <c r="O100" t="n">
-        <v>88.14</v>
+        <v>88.1</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -9666,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>31.82</v>
+        <v>32.37</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>0.08</v>
       </c>
       <c r="L101" t="n">
-        <v>951.18</v>
+        <v>1208.85</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -9746,7 +9746,7 @@
         <v>0.5</v>
       </c>
       <c r="F102" t="n">
-        <v>4245.76</v>
+        <v>4245.71</v>
       </c>
       <c r="G102" t="n">
         <v>0.11</v>
@@ -9764,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>73.36</v>
+        <v>73.34</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -9906,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>13346.5</v>
+        <v>13346.26</v>
       </c>
       <c r="G104" t="n">
         <v>0.39</v>
@@ -9924,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>340.04</v>
+        <v>339.48</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>4754.16</v>
       </c>
       <c r="O104" t="n">
-        <v>50.61</v>
+        <v>50.6</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
@@ -10306,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>476.66</v>
+        <v>476.81</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -10321,16 +10321,16 @@
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>21.58</v>
+        <v>21.77</v>
       </c>
       <c r="L109" t="n">
-        <v>1093.04</v>
+        <v>1093.23</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>910.12</v>
+        <v>910.62</v>
       </c>
       <c r="O109" t="n">
         <v>2.69</v>
@@ -10348,7 +10348,7 @@
         <v>2.6</v>
       </c>
       <c r="T109" t="n">
-        <v>32.79</v>
+        <v>32.81</v>
       </c>
       <c r="U109" t="n">
         <v>0.02</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>415.61</v>
+        <v>416.42</v>
       </c>
       <c r="X109" t="n">
         <v>0</v>
@@ -10961,16 +10961,16 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="L117" t="n">
-        <v>116.36</v>
+        <v>154.25</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>1.84</v>
+        <v>2.19</v>
       </c>
       <c r="O117" t="n">
         <v>14.08</v>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="U117" t="n">
         <v>0</v>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>3286.56</v>
+        <v>3137.12</v>
       </c>
       <c r="G135" t="n">
         <v>67.12</v>
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>1190.78</v>
+        <v>1083.67</v>
       </c>
       <c r="M135" t="n">
         <v>0</v>
@@ -12413,7 +12413,7 @@
         <v>2533.96</v>
       </c>
       <c r="O135" t="n">
-        <v>59.43</v>
+        <v>53.71</v>
       </c>
       <c r="P135" t="n">
         <v>3.92</v>
@@ -12431,7 +12431,7 @@
         <v>664.41</v>
       </c>
       <c r="U135" t="n">
-        <v>6.45</v>
+        <v>6.38</v>
       </c>
       <c r="V135" t="n">
         <v>254.98</v>
@@ -12546,7 +12546,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>315.69</v>
+        <v>315.54</v>
       </c>
       <c r="G137" t="n">
         <v>0.64</v>
@@ -12564,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>527.51</v>
+        <v>527.21</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
@@ -12626,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>2739.81</v>
+        <v>2627.97</v>
       </c>
       <c r="G138" t="n">
         <v>44.07</v>
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>1857.55</v>
+        <v>1774.81</v>
       </c>
       <c r="M138" t="n">
         <v>0</v>
@@ -12653,7 +12653,7 @@
         <v>1902.03</v>
       </c>
       <c r="O138" t="n">
-        <v>9.67</v>
+        <v>8.7</v>
       </c>
       <c r="P138" t="n">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>397.5</v>
       </c>
       <c r="U138" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="V138" t="n">
         <v>14.39</v>
@@ -12866,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>273.46</v>
+        <v>278.86</v>
       </c>
       <c r="G141" t="n">
         <v>10.35</v>
@@ -12881,10 +12881,10 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="L141" t="n">
-        <v>7.94</v>
+        <v>8.18</v>
       </c>
       <c r="M141" t="n">
         <v>0</v>
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="U141" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="V141" t="n">
         <v>0</v>
@@ -12964,7 +12964,7 @@
         <v>16.9</v>
       </c>
       <c r="L142" t="n">
-        <v>128.43</v>
+        <v>128.42</v>
       </c>
       <c r="M142" t="n">
         <v>0</v>
@@ -13106,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>362.11</v>
+        <v>367.52</v>
       </c>
       <c r="G144" t="n">
         <v>10.35</v>
@@ -13121,10 +13121,10 @@
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>6.17</v>
+        <v>6.28</v>
       </c>
       <c r="L144" t="n">
-        <v>81.49</v>
+        <v>81.72</v>
       </c>
       <c r="M144" t="n">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0.47</v>
       </c>
       <c r="U144" t="n">
-        <v>2.84</v>
+        <v>2.89</v>
       </c>
       <c r="V144" t="n">
         <v>0</v>
@@ -13284,7 +13284,7 @@
         <v>6.42</v>
       </c>
       <c r="L146" t="n">
-        <v>16.03</v>
+        <v>16.02</v>
       </c>
       <c r="M146" t="n">
         <v>0</v>
@@ -13346,13 +13346,13 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>2417.79</v>
+        <v>2401.37</v>
       </c>
       <c r="G147" t="n">
         <v>10.08</v>
       </c>
       <c r="H147" t="n">
-        <v>116.38</v>
+        <v>115.94</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -13361,10 +13361,10 @@
         <v>21.7</v>
       </c>
       <c r="K147" t="n">
-        <v>40.22</v>
+        <v>39.85</v>
       </c>
       <c r="L147" t="n">
-        <v>2052.66</v>
+        <v>2026.62</v>
       </c>
       <c r="M147" t="n">
         <v>0</v>
@@ -14152,7 +14152,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -14164,7 +14164,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="M157" t="n">
         <v>0</v>
@@ -14786,7 +14786,7 @@
         <v>0.2</v>
       </c>
       <c r="F165" t="n">
-        <v>4042.55</v>
+        <v>4042.49</v>
       </c>
       <c r="G165" t="n">
         <v>0.1</v>
@@ -14804,7 +14804,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>371.58</v>
+        <v>371.57</v>
       </c>
       <c r="M165" t="n">
         <v>0</v>
@@ -14946,7 +14946,7 @@
         <v>1.34</v>
       </c>
       <c r="F167" t="n">
-        <v>1338.46</v>
+        <v>1338.41</v>
       </c>
       <c r="G167" t="n">
         <v>0.11</v>
@@ -14964,7 +14964,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>214.8</v>
+        <v>214.79</v>
       </c>
       <c r="M167" t="n">
         <v>0</v>
@@ -15346,13 +15346,13 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>1013.92</v>
+        <v>994.72</v>
       </c>
       <c r="G172" t="n">
         <v>6.02</v>
       </c>
       <c r="H172" t="n">
-        <v>91.76</v>
+        <v>90.02</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -15361,10 +15361,10 @@
         <v>3.69</v>
       </c>
       <c r="K172" t="n">
-        <v>10.94</v>
+        <v>10.84</v>
       </c>
       <c r="L172" t="n">
-        <v>1336.56</v>
+        <v>1309.81</v>
       </c>
       <c r="M172" t="n">
         <v>0</v>
